--- a/validations/Modelos_IC.xlsx
+++ b/validations/Modelos_IC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josep\Desktop\Nueva carpeta\ProjectesPsiv-1\validations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C0641-12DE-4C8B-A7B6-63A410713554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52789191-2186-4346-8307-63DECC227451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9AF1954-14FC-4926-BE3D-3BF796F3E107}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{A9AF1954-14FC-4926-BE3D-3BF796F3E107}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA3D5AB-1600-4962-A6A8-2B7074E9D880}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
